--- a/Sanjay Training Progress.xlsx
+++ b/Sanjay Training Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kibc_\Dropbox\Work\Client Programmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2336E5-FA4D-4B7C-B4F6-A63C85998327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A7FA4-BB4B-4D8B-AB07-CD2170793866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{791EBFDF-2E9D-46CA-8267-83D0DD3D941E}"/>
   </bookViews>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -302,7 +302,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -314,28 +313,58 @@
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -354,6 +383,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -432,16 +557,34 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -469,22 +612,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -563,13 +691,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -594,22 +715,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -623,128 +733,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -779,10 +778,104 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sanj Training Progress 2023-2024.xlsx]2024 Visuals!PivotTable7</c:name>
+    <c:name>[Sanjay Training Progress.xlsx]2024 Visuals!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Chart </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Calculated 1RM Progress across 2024</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1485,7 +1578,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sanj Training Progress 2023-2024.xlsx]2023 Visuals!PivotTable6</c:name>
+    <c:name>[Sanjay Training Progress.xlsx]2023 Visuals!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2296,7 +2389,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sanj Training Progress 2023-2024.xlsx]2022 Visuals!PivotTable3</c:name>
+    <c:name>[Sanjay Training Progress.xlsx]2022 Visuals!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5552,7 +5645,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4E2980A-970D-4411-B5B5-176DEBE8AEAD}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="CYCLE">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4E2980A-970D-4411-B5B5-176DEBE8AEAD}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="CYCLE">
   <location ref="A1:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="1" showAll="0">
@@ -5766,7 +5859,7 @@
     <dataField name="BENCH" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="35">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -5917,7 +6010,7 @@
     <dataField name="BENCH" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5963,17 +6056,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A41FAF36-5036-43ED-82D1-075FE582F4F0}" name="Stats2024" displayName="Stats2024" ref="A15:D17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A41FAF36-5036-43ED-82D1-075FE582F4F0}" name="Stats2024" displayName="Stats2024" ref="A15:D17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A15:D17" xr:uid="{A41FAF36-5036-43ED-82D1-075FE582F4F0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22C99816-E814-4E74-932C-D0B631A652A1}" name="METRIC" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{74EA5812-1BBA-4167-B82B-D63DB3C4AECB}" name="SQ2024" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{22C99816-E814-4E74-932C-D0B631A652A1}" name="METRIC" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{74EA5812-1BBA-4167-B82B-D63DB3C4AECB}" name="SQ2024" dataDxfId="36">
       <calculatedColumnFormula>AVERAGE(B1:B10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AEE81A81-21EF-4531-9288-44D9A034CDAA}" name="DEAD2024" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{AEE81A81-21EF-4531-9288-44D9A034CDAA}" name="DEAD2024" dataDxfId="35">
       <calculatedColumnFormula>AVERAGE(C1:C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5931A4E3-5EE5-42E3-9288-BAB52625105C}" name="BEN2024" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{5931A4E3-5EE5-42E3-9288-BAB52625105C}" name="BEN2024" dataDxfId="34">
       <calculatedColumnFormula>AVERAGE(D1:D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5993,17 +6086,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2558F48D-125A-4ABA-B3E8-26B1DC01A3F7}" name="Stats2023" displayName="Stats2023" ref="A15:D17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2558F48D-125A-4ABA-B3E8-26B1DC01A3F7}" name="Stats2023" displayName="Stats2023" ref="A15:D17" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A15:D17" xr:uid="{2558F48D-125A-4ABA-B3E8-26B1DC01A3F7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7843E030-F915-4600-A561-6C0F7A50CA5D}" name="METRIC" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5D13659C-712B-4EEC-AA1A-9892C46C7DD6}" name="SQ2023" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{7843E030-F915-4600-A561-6C0F7A50CA5D}" name="METRIC" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5D13659C-712B-4EEC-AA1A-9892C46C7DD6}" name="SQ2023" dataDxfId="27">
       <calculatedColumnFormula>AVERAGE(B1:B10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48CDA870-62E0-4849-9C0D-3255CFEDEFD2}" name="DEAD2023" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{48CDA870-62E0-4849-9C0D-3255CFEDEFD2}" name="DEAD2023" dataDxfId="26">
       <calculatedColumnFormula>AVERAGE(C1:C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D79AF16A-DBDE-451D-89FC-C55843D14E0D}" name="BEN2023" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{D79AF16A-DBDE-451D-89FC-C55843D14E0D}" name="BEN2023" dataDxfId="25">
       <calculatedColumnFormula>AVERAGE(D1:D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6012,7 +6105,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EFE57B20-8919-4754-A60E-8770300BB6DE}" name="stats2022" displayName="stats2022" ref="A15:D17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EFE57B20-8919-4754-A60E-8770300BB6DE}" name="stats2022" displayName="stats2022" ref="A15:D17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A15:D17" xr:uid="{EFE57B20-8919-4754-A60E-8770300BB6DE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3207E7B-818C-42E5-BE9F-3E67556CB1F7}" name="METRIC" dataDxfId="21"/>
@@ -6034,11 +6127,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F77605B9-E0DA-4225-A1CD-5E680691A299}" name="Table2024" displayName="Table2024" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{9C1307C5-801A-4FC0-B52C-A1F56D770B73}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E1CD7BDF-64C2-4D49-8B0F-FD61B5A398B6}" name="CYCLE" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{E1CD7BDF-64C2-4D49-8B0F-FD61B5A398B6}" name="CYCLE" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{ACA8A336-DD04-45CD-B47E-C42697785156}" name="SQUAT KG"/>
     <tableColumn id="3" xr3:uid="{B352D007-B82F-452E-A48F-2EEDAFDD3C15}" name="SQUAT REPS"/>
-    <tableColumn id="4" xr3:uid="{743FE6C7-98B8-4923-AE84-2578252B8CFF}" name="SQUAT %1RM" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{24D16317-4AD7-47AC-A62D-6228159F7BF0}" name="SQUAT CALCULATED 1RM" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{743FE6C7-98B8-4923-AE84-2578252B8CFF}" name="SQUAT %1RM" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{24D16317-4AD7-47AC-A62D-6228159F7BF0}" name="SQUAT CALCULATED 1RM" dataDxfId="15">
       <calculatedColumnFormula>B2/D2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6052,14 +6145,14 @@
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{2B1E788D-F4D0-4D7B-A4C0-67DAD09E5673}" name="DEADLIFT  KG"/>
     <tableColumn id="3" xr3:uid="{1D4DACD9-7A7D-48D1-9216-A9FD9920F097}" name="DEADLIFT  REPS"/>
-    <tableColumn id="4" xr3:uid="{17B83168-6B07-4B41-87BC-C6A5186D45FA}" name="DEADLIFT %1RM" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{C3A5C6B8-7537-4137-BE43-DCBC65B80E8C}" name="DEADLIFT CALCULATED 1RM" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{17B83168-6B07-4B41-87BC-C6A5186D45FA}" name="DEADLIFT %1RM" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C3A5C6B8-7537-4137-BE43-DCBC65B80E8C}" name="DEADLIFT CALCULATED 1RM" dataDxfId="13">
       <calculatedColumnFormula>F2/H2*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{48FD7140-2CE7-41A1-B8BC-DA9F5F4C1EC3}" name="BENCH KG"/>
     <tableColumn id="7" xr3:uid="{0D12CB95-0CF0-4FA3-A657-B52C9DCABCE8}" name="BENCH REPS"/>
     <tableColumn id="8" xr3:uid="{2CCC9259-1C38-4B7D-9033-57643248C84C}" name="BENCH %1RM2"/>
-    <tableColumn id="1" xr3:uid="{E461FE4C-57B4-4A91-984F-8D6A20285ED2}" name="BENCH CALCULATED 1RM" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{E461FE4C-57B4-4A91-984F-8D6A20285ED2}" name="BENCH CALCULATED 1RM" dataDxfId="12">
       <calculatedColumnFormula>J2/L2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6071,11 +6164,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C1307C5-801A-4FC0-B52C-A1F56D770B73}" name="Table2023" displayName="Table2023" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{9C1307C5-801A-4FC0-B52C-A1F56D770B73}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BBB3A33-9362-4F14-A730-6D1153B50C37}" name="CYCLE" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{7BBB3A33-9362-4F14-A730-6D1153B50C37}" name="CYCLE" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C4A85FD3-5174-49D6-BF6D-65CFC1689C7E}" name="SQUAT KG"/>
     <tableColumn id="3" xr3:uid="{1625246E-3C94-43D1-850E-9EE23244B8AB}" name="SQUAT REPS"/>
-    <tableColumn id="4" xr3:uid="{CFEE5C5F-E7DB-4202-A201-36ADE2A9E02B}" name="SQUAT %1RM" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{FA59F477-41F2-4AC4-9EFE-073093320AB6}" name="SQUAT CALCULATED 1RM" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{CFEE5C5F-E7DB-4202-A201-36ADE2A9E02B}" name="SQUAT %1RM" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FA59F477-41F2-4AC4-9EFE-073093320AB6}" name="SQUAT CALCULATED 1RM" dataDxfId="9">
       <calculatedColumnFormula>B2/D2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6089,14 +6182,14 @@
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{573313AD-0228-497B-A2AC-B76419A47CF2}" name="DEADLIFT  KG"/>
     <tableColumn id="3" xr3:uid="{D117C021-03C5-4A77-9328-314741DFAFF9}" name="DEADLIFT  REPS"/>
-    <tableColumn id="4" xr3:uid="{43865CF4-9325-43C5-8535-A5BF649AABBE}" name="DEADLIFT %1RM" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{FC42CC6F-BFB1-4A97-A68F-BEFA53D137C5}" name="DEADLIFT CALCULATED 1RM" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{43865CF4-9325-43C5-8535-A5BF649AABBE}" name="DEADLIFT %1RM" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FC42CC6F-BFB1-4A97-A68F-BEFA53D137C5}" name="DEADLIFT CALCULATED 1RM" dataDxfId="7">
       <calculatedColumnFormula>F2/H2*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{20FD9AE7-E439-4F27-8F8D-BA8C6A4D845C}" name="BENCH KG"/>
     <tableColumn id="7" xr3:uid="{2B7A92AB-342F-4548-A6E1-B5AF12B34263}" name="BENCH REPS"/>
     <tableColumn id="8" xr3:uid="{61E41031-AB4E-4ED0-8075-1FB7AE8E2AF7}" name="BENCH %1RM2"/>
-    <tableColumn id="1" xr3:uid="{69189E4E-2919-4356-A353-4D9247BBD495}" name="BENCH CALCULATED 1RM" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{69189E4E-2919-4356-A353-4D9247BBD495}" name="BENCH CALCULATED 1RM" dataDxfId="6">
       <calculatedColumnFormula>J2/L2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6108,11 +6201,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C023F76-38A1-4F4E-9934-AB6FAC07B31D}" name="Table2022" displayName="Table2022" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{9C1307C5-801A-4FC0-B52C-A1F56D770B73}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D4D18A2-CFCD-49A0-88AC-B952BBC6D9C4}" name="CYCLE" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{6D4D18A2-CFCD-49A0-88AC-B952BBC6D9C4}" name="CYCLE" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C7B2A030-2348-43B8-92BC-5314A6BA9568}" name="SQUAT KG"/>
     <tableColumn id="3" xr3:uid="{5A6D499E-A37B-42B9-AE9E-E40AD2332547}" name="SQUAT REPS"/>
-    <tableColumn id="4" xr3:uid="{D11A8221-33A0-4CA1-A952-A4611E008541}" name="SQUAT %1RM" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{25F43436-5D65-42EA-91AB-89CFC4353500}" name="SQUAT CALCULATED 1RM" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{D11A8221-33A0-4CA1-A952-A4611E008541}" name="SQUAT %1RM" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{25F43436-5D65-42EA-91AB-89CFC4353500}" name="SQUAT CALCULATED 1RM" dataDxfId="3">
       <calculatedColumnFormula>B2/D2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6126,14 +6219,14 @@
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{1E4D3B19-EA72-4438-94C1-64DB6F683CEB}" name="DEADLIFT  KG"/>
     <tableColumn id="3" xr3:uid="{A0C9314A-E143-40C1-B38D-F65EF331D334}" name="DEADLIFT  REPS"/>
-    <tableColumn id="4" xr3:uid="{2A0ACC34-5699-497F-B2EE-DE3350B5F158}" name="DEADLIFT %1RM" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{D3AC24AA-8C2F-43E0-AF96-77FCDB3D1952}" name="DEADLIFT CALCULATED 1RM" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{2A0ACC34-5699-497F-B2EE-DE3350B5F158}" name="DEADLIFT %1RM" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D3AC24AA-8C2F-43E0-AF96-77FCDB3D1952}" name="DEADLIFT CALCULATED 1RM" dataDxfId="1">
       <calculatedColumnFormula>F2/H2*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{EBFE8330-D53D-471B-A941-6B9E1EF5787F}" name="BENCH KG"/>
     <tableColumn id="7" xr3:uid="{B21E40C4-C5B2-40F2-BC22-C30FB0410849}" name="BENCH REPS"/>
     <tableColumn id="8" xr3:uid="{A52A21C7-00A6-4B12-94A6-6BE68471D1F6}" name="BENCH %1RM2"/>
-    <tableColumn id="1" xr3:uid="{DBBDB9D2-DACA-4F25-8673-4EF744DC5276}" name="BENCH CALCULATED 1RM" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{DBBDB9D2-DACA-4F25-8673-4EF744DC5276}" name="BENCH CALCULATED 1RM" dataDxfId="0">
       <calculatedColumnFormula>J2/L2*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6441,7 +6534,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6579,49 +6672,49 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>MAX(B2:B10)</f>
         <v>100</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ref="C16:D16" si="0">MAX(C2:C10)</f>
         <v>117.28395061728396</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>82.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>AVERAGE(B2:B11)</f>
         <v>93.337668317022363</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" ref="C17:D17" si="1">AVERAGE(C2:C11)</f>
         <v>101.50046613432134</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>69.246478873239425</v>
       </c>
@@ -6639,7 +6732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F30E05-D57E-4116-A9E0-7840BF9CA419}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:D17"/>
     </sheetView>
   </sheetViews>
@@ -6809,54 +6902,51 @@
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>MAX(B2:B10)</f>
         <v>105.67010309278351</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ref="C16:D16" si="0">MAX(C2:C10)</f>
         <v>127.49999999999999</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>76.923076923076934</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>AVERAGE(B2:B11)</f>
         <v>94.535887947512705</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" ref="C17:D17" si="1">AVERAGE(C2:C11)</f>
         <v>107.93593816056057</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>69.724658674335643</v>
       </c>
@@ -7055,49 +7145,49 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <f>MAX(B2:B10)</f>
         <v>89.743589743589752</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" ref="C16:D16" si="0">MAX(C2:C10)</f>
         <v>116.27906976744187</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>70.422535211267601</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>AVERAGE(B2:B11)</f>
         <v>81.622077912321657</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" ref="C17:D17" si="1">AVERAGE(C2:C11)</f>
         <v>102.50604875407562</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>61.131997110870337</v>
       </c>
